--- a/artist_2.xlsx
+++ b/artist_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladimirfu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AAAC33A-709A-4BC3-BEF5-256522D43837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCA1579-CF1D-4373-A652-9C49E3D733C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Roxette</t>
   </si>
   <si>
-    <t>The Cardigans</t>
-  </si>
-  <si>
     <t>Europe</t>
+  </si>
+  <si>
+    <t>The_Cardigans</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +393,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1190</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -412,7 +412,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1994</v>
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1982</v>
